--- a/admin-frontend/public/templates/ElectionInfoTemplate.xlsx
+++ b/admin-frontend/public/templates/ElectionInfoTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/FD30BBC86A1C81A4/Dokumente/HKA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grimp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57FF8351-3B10-41C0-9F9E-65D9BD6B0710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB37DAD0-63C5-4DC9-906F-BA002E03080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{879F85C7-4E5D-984A-8EA2-E8D8632DF256}"/>
   </bookViews>
@@ -16,12 +16,14 @@
     <sheet name="Wahlen" sheetId="4" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
     <sheet name="Listenvorlage" sheetId="1" r:id="rId3"/>
+    <sheet name="OptionsUrabstimmung" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">OptionsUrabstimmung!$D$13:$D$13</definedName>
     <definedName name="WahltypListe">Tabelle1!$A$2:$A$4</definedName>
     <definedName name="ZählverfahrenListe">Tabelle1!$B$2:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,103 +44,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Gremienwahlen</t>
+  </si>
+  <si>
+    <t>Wahlzeitraum von</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
   <si>
     <t>Wahl</t>
   </si>
   <si>
+    <t>Kennung</t>
+  </si>
+  <si>
     <t>Info</t>
   </si>
   <si>
+    <t>Listen</t>
+  </si>
+  <si>
     <t>Plätze</t>
   </si>
   <si>
-    <t>Kennung</t>
+    <t>Stimmen pro Zettel</t>
+  </si>
+  <si>
+    <t>max. Kum.</t>
+  </si>
+  <si>
+    <t>Wahltyp</t>
+  </si>
+  <si>
+    <t>Zählverfahren</t>
+  </si>
+  <si>
+    <t>Urabstimmung</t>
+  </si>
+  <si>
+    <t>Einfache Mehrheit</t>
+  </si>
+  <si>
+    <t>Ja/Nein/Enthaltung</t>
+  </si>
+  <si>
+    <t>Verhältniswahl</t>
+  </si>
+  <si>
+    <t>Sainte-Laguë</t>
+  </si>
+  <si>
+    <t>Mehrheitswahl</t>
+  </si>
+  <si>
+    <t>Hare-Niemeyer</t>
+  </si>
+  <si>
+    <t>Absolute Mehrheit</t>
+  </si>
+  <si>
+    <t>Wahl Kennung</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>Liste / Schlüsselwort</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Mtr-Nr.</t>
   </si>
   <si>
     <t>Fakultät</t>
   </si>
   <si>
-    <t>Berechtigt (leer = alle)</t>
-  </si>
-  <si>
-    <t>Studiengänge (Komma-getrennt)</t>
-  </si>
-  <si>
-    <t>Fakultät(en)</t>
-  </si>
-  <si>
-    <t>Gremienwahlen</t>
-  </si>
-  <si>
-    <t>Nr</t>
-  </si>
-  <si>
-    <t>Vorname</t>
-  </si>
-  <si>
-    <t>Nachname</t>
-  </si>
-  <si>
-    <t>Mtr-Nr.</t>
-  </si>
-  <si>
     <t>Studiengang</t>
   </si>
   <si>
-    <t>bis</t>
-  </si>
-  <si>
-    <t>Wahlzeitraum von</t>
-  </si>
-  <si>
-    <t>&lt;JAHR&gt;</t>
-  </si>
-  <si>
-    <t>Liste / Schlüsselwort</t>
-  </si>
-  <si>
-    <t>max. Kum.</t>
-  </si>
-  <si>
-    <t>Listen</t>
-  </si>
-  <si>
-    <t>Wahltyp</t>
-  </si>
-  <si>
-    <t>Zählverfahren</t>
-  </si>
-  <si>
-    <t>Verhältniswahl</t>
-  </si>
-  <si>
-    <t>Mehrheitswahl</t>
-  </si>
-  <si>
-    <t>Urabstimmung</t>
-  </si>
-  <si>
-    <t>Sainte-Laguë</t>
-  </si>
-  <si>
-    <t>Hare-Niemeyer</t>
-  </si>
-  <si>
-    <t>Einfache Mehrheit</t>
-  </si>
-  <si>
-    <t>Absolute Mehrheit</t>
-  </si>
-  <si>
-    <t>Ja/Nein/Enthaltung</t>
+    <t>Wahlkennung</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,8 +168,21 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +195,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -192,11 +225,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,11 +388,160 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -259,6 +552,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76C4F388-FA48-4067-BD65-5878EFD80C55}" name="Tabelle1" displayName="Tabelle1" ref="A1:D8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D8" xr:uid="{76C4F388-FA48-4067-BD65-5878EFD80C55}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FC4B2E8A-AB63-427E-89B7-7FB10E311AE1}" name="Wahlkennung" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5D74D872-D679-46B9-99FB-943F4DC13BC8}" name="Nr" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{64E382F0-E409-49D1-9D51-2FBA7039DEB5}" name="Name" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{399B3E4B-353D-4477-B35C-E84511F6F819}" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,136 +889,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFE4B47-D663-D342-AA4C-FBC4C707780B}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="12"/>
+    <col min="1" max="1" width="10.59765625" style="12"/>
     <col min="2" max="2" width="58" style="12" customWidth="1"/>
     <col min="3" max="3" width="7" style="13" customWidth="1"/>
-    <col min="4" max="5" width="13.796875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="12" customWidth="1"/>
-    <col min="7" max="9" width="46.19921875" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="10.796875" style="6"/>
+    <col min="4" max="5" width="19.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.59765625" style="12" customWidth="1"/>
+    <col min="8" max="10" width="46.09765625" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="10.59765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="15"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="15">
+        <v>2025</v>
+      </c>
       <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="16" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="16"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H136" xr:uid="{95BEE584-7226-4139-8E9F-337916084402}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7 G8 I9:I136" xr:uid="{95BEE584-7226-4139-8E9F-337916084402}">
       <formula1>WahltypListe</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I205" xr:uid="{C0626E70-4957-4742-9A51-5D52CF76F6DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7 H8 J9:J205" xr:uid="{C0626E70-4957-4742-9A51-5D52CF76F6DC}">
       <formula1>ZählverfahrenListe</formula1>
     </dataValidation>
   </dataValidations>
@@ -720,10 +1033,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -731,44 +1044,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -778,64 +1091,176 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978550DC-8168-BA43-9025-C43B8E747870}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="13" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="10.796875" style="6"/>
+    <col min="1" max="1" width="16.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" customWidth="1"/>
+    <col min="5" max="5" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="13" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="10.59765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E6"/>
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC58F4F-ADDA-5045-BAD9-8E8E98609985}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="191.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="27"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D13" xr:uid="{2DC58F4F-ADDA-5045-BAD9-8E8E98609985}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>